--- a/BbnagBbang-Yee_Enemy_List.xlsx
+++ b/BbnagBbang-Yee_Enemy_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjong\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjong\OneDrive\바탕 화면\UnityProjects\bbangbbang-e_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D8574-B88C-45EE-A915-334725D97BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C264F067-99F8-49EC-9A39-368F45C9932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>차량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어의 주변을 맴돈다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충돌 시 적은 데미지를 입힌다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +316,18 @@
   </si>
   <si>
     <t>빨리 처치하지 않을 시 지속적으로 총알을 쏜다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 주변을 맴돈다. 처치하지 않을 시 적군의 스폰률이 증가한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱크로리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치 시 폭발하면서 주변 유닛들에게 화재 디버프를 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -380,16 +388,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,22 +692,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" customWidth="1"/>
-    <col min="5" max="5" width="89.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="89.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,24 +724,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -730,393 +750,393 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1125,9 +1145,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1136,22 +1158,35 @@
         <v>59</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
